--- a/resources/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
+++ b/resources/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749AE46F-F701-4632-A4B3-3CFE6D89D588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E3FAEA-F949-4E10-8AAE-641623E128E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -1462,9 +1462,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1581,83 +1578,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1686,6 +1606,83 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1700,6 +1697,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1710,18 +1711,11 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,6 +1730,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2044,23 +2052,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:J98" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:J98" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="11">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="7">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2115,7 +2123,7 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2436,7 +2444,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2445,220 +2453,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="75" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="K2" s="86" t="s">
+      <c r="H2" s="69"/>
+      <c r="K2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="84"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="27" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80" t="str">
+      <c r="B5" s="73"/>
+      <c r="C5" s="76" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H5,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="21" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="82"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="63" t="str">
+      <c r="B6" s="73"/>
+      <c r="C6" s="84" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="24"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="23"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
       <c r="G8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="66" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="87" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="21" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="str">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
       <c r="G12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7"/>
@@ -2674,10 +2682,10 @@
         <v>154</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="95">
         <v>0.1</v>
       </c>
       <c r="E16" s="7"/>
@@ -2697,177 +2705,177 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65" t="str">
+      <c r="E18" s="86"/>
+      <c r="F18" s="86" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="J18" s="89" t="s">
+      <c r="G18" s="86"/>
+      <c r="J18" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="89"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="70">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="67">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="73" t="str">
+      <c r="E19" s="67"/>
+      <c r="F19" s="82" t="str">
         <f t="shared" ref="F19:F22" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D19*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G19" s="73"/>
-      <c r="J19" s="90">
+      <c r="G19" s="82"/>
+      <c r="J19" s="65">
         <v>35</v>
       </c>
-      <c r="K19" s="90"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="70">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="67">
         <v>0.25</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="73" t="str">
+      <c r="E20" s="67"/>
+      <c r="F20" s="82" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="73"/>
-      <c r="J20" s="90">
+      <c r="G20" s="82"/>
+      <c r="J20" s="65">
         <v>34</v>
       </c>
-      <c r="K20" s="90"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="70">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="67">
         <v>1.25</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="73" t="str">
+      <c r="E21" s="67"/>
+      <c r="F21" s="82" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="73"/>
-      <c r="J21" s="87">
+      <c r="G21" s="82"/>
+      <c r="J21" s="62">
         <v>33</v>
       </c>
-      <c r="K21" s="87"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="70">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="67">
         <v>5</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="73" t="str">
+      <c r="E22" s="67"/>
+      <c r="F22" s="82" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="73"/>
-      <c r="J22" s="88">
+      <c r="G22" s="82"/>
+      <c r="J22" s="63">
         <v>32</v>
       </c>
-      <c r="K22" s="88"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="67">
         <v>1</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="73" t="str">
+      <c r="E23" s="67"/>
+      <c r="F23" s="82" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D23*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G23" s="73"/>
-      <c r="J23" s="87">
+      <c r="G23" s="82"/>
+      <c r="J23" s="62">
         <v>31</v>
       </c>
-      <c r="K23" s="87"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="70">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="67">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D19:E23)</f>
         <v>-17.5</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="73" t="str">
+      <c r="E24" s="67"/>
+      <c r="F24" s="82" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G24" s="73"/>
-      <c r="J24" s="87">
+      <c r="G24" s="82"/>
+      <c r="J24" s="62">
         <v>30</v>
       </c>
-      <c r="K24" s="87"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="G25" s="18" t="str">
+      <c r="G25" s="17" t="str">
         <f>CONCATENATE("Add ",SUM(D19:D24)," µl of MM to each well")</f>
         <v>Add -10 µl of MM to each well</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="62">
         <v>65</v>
       </c>
-      <c r="K25" s="87"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
@@ -2877,10 +2885,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="7"/>
       <c r="G26" s="10"/>
-      <c r="J26" s="87">
+      <c r="J26" s="62">
         <v>10</v>
       </c>
-      <c r="K26" s="87"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="13" t="s">
         <v>12</v>
       </c>
@@ -2895,11 +2903,11 @@
       <c r="D27" s="7"/>
       <c r="F27" s="13"/>
       <c r="G27" s="10"/>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
@@ -2920,11 +2928,11 @@
       <c r="D29" s="7"/>
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="14"/>
@@ -2935,7 +2943,7 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B31"/>
@@ -2948,463 +2956,463 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32"/>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>1</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>2</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>3</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>4</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>5</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <v>6</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>7</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <v>8</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="27">
         <v>9</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>10</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="27">
         <v>11</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="33" t="str">
+      <c r="B33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D3),"",sWGA!$D3)</f>
         <v/>
       </c>
-      <c r="C33" s="33" t="str">
+      <c r="C33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D11),"",sWGA!$D11)</f>
         <v/>
       </c>
-      <c r="D33" s="33" t="str">
+      <c r="D33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D19),"",sWGA!$D19)</f>
         <v/>
       </c>
-      <c r="E33" s="33" t="str">
+      <c r="E33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D27),"",sWGA!$D27)</f>
         <v/>
       </c>
-      <c r="F33" s="33" t="str">
+      <c r="F33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D35),"",sWGA!$D35)</f>
         <v/>
       </c>
-      <c r="G33" s="33" t="str">
+      <c r="G33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D43),"",sWGA!$D43)</f>
         <v/>
       </c>
-      <c r="H33" s="33" t="str">
+      <c r="H33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D51),"",sWGA!$D51)</f>
         <v/>
       </c>
-      <c r="I33" s="33" t="str">
+      <c r="I33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D59),"",sWGA!$D59)</f>
         <v/>
       </c>
-      <c r="J33" s="33" t="str">
+      <c r="J33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D67),"",sWGA!$D67)</f>
         <v/>
       </c>
-      <c r="K33" s="33" t="str">
+      <c r="K33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D75),"",sWGA!$D75)</f>
         <v/>
       </c>
-      <c r="L33" s="33" t="str">
+      <c r="L33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D83),"",sWGA!$D83)</f>
         <v/>
       </c>
-      <c r="M33" s="33" t="str">
+      <c r="M33" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D91),"",sWGA!$D91)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="33" t="str">
+      <c r="B34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D4),"",sWGA!$D4)</f>
         <v/>
       </c>
-      <c r="C34" s="33" t="str">
+      <c r="C34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D12),"",sWGA!$D12)</f>
         <v/>
       </c>
-      <c r="D34" s="33" t="str">
+      <c r="D34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D20),"",sWGA!$D20)</f>
         <v/>
       </c>
-      <c r="E34" s="33" t="str">
+      <c r="E34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D28),"",sWGA!$D28)</f>
         <v/>
       </c>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D36),"",sWGA!$D36)</f>
         <v/>
       </c>
-      <c r="G34" s="33" t="str">
+      <c r="G34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D44),"",sWGA!$D44)</f>
         <v/>
       </c>
-      <c r="H34" s="33" t="str">
+      <c r="H34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D52),"",sWGA!$D52)</f>
         <v/>
       </c>
-      <c r="I34" s="33" t="str">
+      <c r="I34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D60),"",sWGA!$D60)</f>
         <v/>
       </c>
-      <c r="J34" s="33" t="str">
+      <c r="J34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D68),"",sWGA!$D68)</f>
         <v/>
       </c>
-      <c r="K34" s="33" t="str">
+      <c r="K34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D76),"",sWGA!$D76)</f>
         <v/>
       </c>
-      <c r="L34" s="33" t="str">
+      <c r="L34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D84),"",sWGA!$D84)</f>
         <v/>
       </c>
-      <c r="M34" s="33" t="str">
+      <c r="M34" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D92),"",sWGA!$D92)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="33" t="str">
+      <c r="B35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D5),"",sWGA!$D5)</f>
         <v/>
       </c>
-      <c r="C35" s="33" t="str">
+      <c r="C35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D13),"",sWGA!$D13)</f>
         <v/>
       </c>
-      <c r="D35" s="33" t="str">
+      <c r="D35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D21),"",sWGA!$D21)</f>
         <v/>
       </c>
-      <c r="E35" s="33" t="str">
+      <c r="E35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D29),"",sWGA!$D29)</f>
         <v/>
       </c>
-      <c r="F35" s="33" t="str">
+      <c r="F35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D37),"",sWGA!$D37)</f>
         <v/>
       </c>
-      <c r="G35" s="33" t="str">
+      <c r="G35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D45),"",sWGA!$D45)</f>
         <v/>
       </c>
-      <c r="H35" s="33" t="str">
+      <c r="H35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D53),"",sWGA!$D53)</f>
         <v/>
       </c>
-      <c r="I35" s="33" t="str">
+      <c r="I35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D61),"",sWGA!$D61)</f>
         <v/>
       </c>
-      <c r="J35" s="33" t="str">
+      <c r="J35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D69),"",sWGA!$D69)</f>
         <v/>
       </c>
-      <c r="K35" s="33" t="str">
+      <c r="K35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D77),"",sWGA!$D77)</f>
         <v/>
       </c>
-      <c r="L35" s="33" t="str">
+      <c r="L35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D85),"",sWGA!$D85)</f>
         <v/>
       </c>
-      <c r="M35" s="33" t="str">
+      <c r="M35" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D93),"",sWGA!$D93)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="str">
+      <c r="B36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D6),"",sWGA!$D6)</f>
         <v/>
       </c>
-      <c r="C36" s="33" t="str">
+      <c r="C36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D14),"",sWGA!$D14)</f>
         <v/>
       </c>
-      <c r="D36" s="33" t="str">
+      <c r="D36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D22),"",sWGA!$D22)</f>
         <v/>
       </c>
-      <c r="E36" s="33" t="str">
+      <c r="E36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D30),"",sWGA!$D30)</f>
         <v/>
       </c>
-      <c r="F36" s="33" t="str">
+      <c r="F36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D38),"",sWGA!$D38)</f>
         <v/>
       </c>
-      <c r="G36" s="33" t="str">
+      <c r="G36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D46),"",sWGA!$D46)</f>
         <v/>
       </c>
-      <c r="H36" s="33" t="str">
+      <c r="H36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D54),"",sWGA!$D54)</f>
         <v/>
       </c>
-      <c r="I36" s="33" t="str">
+      <c r="I36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D62),"",sWGA!$D62)</f>
         <v/>
       </c>
-      <c r="J36" s="33" t="str">
+      <c r="J36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D70),"",sWGA!$D70)</f>
         <v/>
       </c>
-      <c r="K36" s="33" t="str">
+      <c r="K36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D78),"",sWGA!$D78)</f>
         <v/>
       </c>
-      <c r="L36" s="33" t="str">
+      <c r="L36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D86),"",sWGA!$D86)</f>
         <v/>
       </c>
-      <c r="M36" s="33" t="str">
+      <c r="M36" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D94),"",sWGA!$D94)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="33" t="str">
+      <c r="B37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D7),"",sWGA!$D7)</f>
         <v/>
       </c>
-      <c r="C37" s="33" t="str">
+      <c r="C37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D15),"",sWGA!$D15)</f>
         <v/>
       </c>
-      <c r="D37" s="33" t="str">
+      <c r="D37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D23),"",sWGA!$D23)</f>
         <v/>
       </c>
-      <c r="E37" s="33" t="str">
+      <c r="E37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D31),"",sWGA!$D31)</f>
         <v/>
       </c>
-      <c r="F37" s="33" t="str">
+      <c r="F37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D39),"",sWGA!$D39)</f>
         <v/>
       </c>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D47),"",sWGA!$D47)</f>
         <v/>
       </c>
-      <c r="H37" s="33" t="str">
+      <c r="H37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D55),"",sWGA!$D55)</f>
         <v/>
       </c>
-      <c r="I37" s="33" t="str">
+      <c r="I37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D63),"",sWGA!$D63)</f>
         <v/>
       </c>
-      <c r="J37" s="33" t="str">
+      <c r="J37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D71),"",sWGA!$D71)</f>
         <v/>
       </c>
-      <c r="K37" s="33" t="str">
+      <c r="K37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D79),"",sWGA!$D79)</f>
         <v/>
       </c>
-      <c r="L37" s="33" t="str">
+      <c r="L37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D87),"",sWGA!$D87)</f>
         <v/>
       </c>
-      <c r="M37" s="33" t="str">
+      <c r="M37" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D95),"",sWGA!$D95)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="33" t="str">
+      <c r="B38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D8),"",sWGA!$D8)</f>
         <v/>
       </c>
-      <c r="C38" s="33" t="str">
+      <c r="C38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D16),"",sWGA!$D16)</f>
         <v/>
       </c>
-      <c r="D38" s="33" t="str">
+      <c r="D38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D24),"",sWGA!$D24)</f>
         <v/>
       </c>
-      <c r="E38" s="33" t="str">
+      <c r="E38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D32),"",sWGA!$D32)</f>
         <v/>
       </c>
-      <c r="F38" s="33" t="str">
+      <c r="F38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D40),"",sWGA!$D40)</f>
         <v/>
       </c>
-      <c r="G38" s="33" t="str">
+      <c r="G38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D48),"",sWGA!$D48)</f>
         <v/>
       </c>
-      <c r="H38" s="33" t="str">
+      <c r="H38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D56),"",sWGA!$D56)</f>
         <v/>
       </c>
-      <c r="I38" s="33" t="str">
+      <c r="I38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D64),"",sWGA!$D64)</f>
         <v/>
       </c>
-      <c r="J38" s="33" t="str">
+      <c r="J38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D72),"",sWGA!$D72)</f>
         <v/>
       </c>
-      <c r="K38" s="33" t="str">
+      <c r="K38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D80),"",sWGA!$D80)</f>
         <v/>
       </c>
-      <c r="L38" s="33" t="str">
+      <c r="L38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D88),"",sWGA!$D88)</f>
         <v/>
       </c>
-      <c r="M38" s="33" t="str">
+      <c r="M38" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D96),"",sWGA!$D96)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="33" t="str">
+      <c r="B39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D9),"",sWGA!$D9)</f>
         <v/>
       </c>
-      <c r="C39" s="33" t="str">
+      <c r="C39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D17),"",sWGA!$D17)</f>
         <v/>
       </c>
-      <c r="D39" s="33" t="str">
+      <c r="D39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D25),"",sWGA!$D25)</f>
         <v/>
       </c>
-      <c r="E39" s="33" t="str">
+      <c r="E39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D33),"",sWGA!$D33)</f>
         <v/>
       </c>
-      <c r="F39" s="33" t="str">
+      <c r="F39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D41),"",sWGA!$D41)</f>
         <v/>
       </c>
-      <c r="G39" s="33" t="str">
+      <c r="G39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D49),"",sWGA!$D49)</f>
         <v/>
       </c>
-      <c r="H39" s="33" t="str">
+      <c r="H39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D57),"",sWGA!$D57)</f>
         <v/>
       </c>
-      <c r="I39" s="33" t="str">
+      <c r="I39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D65),"",sWGA!$D65)</f>
         <v/>
       </c>
-      <c r="J39" s="33" t="str">
+      <c r="J39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D73),"",sWGA!$D73)</f>
         <v/>
       </c>
-      <c r="K39" s="33" t="str">
+      <c r="K39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D81),"",sWGA!$D81)</f>
         <v/>
       </c>
-      <c r="L39" s="33" t="str">
+      <c r="L39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D89),"",sWGA!$D89)</f>
         <v/>
       </c>
-      <c r="M39" s="33" t="str">
+      <c r="M39" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D97),"",sWGA!$D97)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="33" t="str">
+      <c r="B40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D10),"",sWGA!$D10)</f>
         <v/>
       </c>
-      <c r="C40" s="33" t="str">
+      <c r="C40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D18),"",sWGA!$D18)</f>
         <v/>
       </c>
-      <c r="D40" s="33" t="str">
+      <c r="D40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D26),"",sWGA!$D26)</f>
         <v/>
       </c>
-      <c r="E40" s="33" t="str">
+      <c r="E40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D34),"",sWGA!$D34)</f>
         <v/>
       </c>
-      <c r="F40" s="33" t="str">
+      <c r="F40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D42),"",sWGA!$D42)</f>
         <v/>
       </c>
-      <c r="G40" s="33" t="str">
+      <c r="G40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D50),"",sWGA!$D50)</f>
         <v/>
       </c>
-      <c r="H40" s="33" t="str">
+      <c r="H40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D58),"",sWGA!$D58)</f>
         <v/>
       </c>
-      <c r="I40" s="33" t="str">
+      <c r="I40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D66),"",sWGA!$D66)</f>
         <v/>
       </c>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D74),"",sWGA!$D74)</f>
         <v/>
       </c>
-      <c r="K40" s="33" t="str">
+      <c r="K40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D82),"",sWGA!$D82)</f>
         <v/>
       </c>
-      <c r="L40" s="33" t="str">
+      <c r="L40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D90),"",sWGA!$D90)</f>
         <v/>
       </c>
-      <c r="M40" s="33" t="str">
+      <c r="M40" s="32" t="str">
         <f>IF(ISBLANK(sWGA!$D98),"",sWGA!$D98)</f>
         <v/>
       </c>
@@ -3413,8 +3421,52 @@
       <c r="A41" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="btHkrXBqEGdGbkn1NwZmAM3ULCus65Dk0hcJxUO8FFboy+VAjcuTRHvN6Fu/qrU9jip3BnI1uBsKBk2Cj/8Rlg==" saltValue="vZMk72X+wK3wpel3aY0Atg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="K3:L3"/>
@@ -3431,60 +3483,21 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="C13:K14"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C13">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>COUNTIF(C7,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF(D16,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3531,7 +3544,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3548,2182 +3561,2182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="56">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <v>13</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <v>14</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>15</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="56">
+      <c r="A18" s="55">
         <v>16</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="56">
+      <c r="A20" s="55">
         <v>18</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="56">
+      <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="56">
+      <c r="A22" s="55">
         <v>20</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="56">
+      <c r="A23" s="55">
         <v>21</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="56">
+      <c r="A24" s="55">
         <v>22</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="56">
+      <c r="A25" s="55">
         <v>23</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="56">
+      <c r="A26" s="55">
         <v>24</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="56">
+      <c r="A27" s="55">
         <v>25</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="56">
+      <c r="A28" s="55">
         <v>26</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="56">
+      <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J29" s="43"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="56">
+      <c r="A30" s="55">
         <v>28</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="56">
+      <c r="A31" s="55">
         <v>29</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J31" s="43"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="56">
+      <c r="A32" s="55">
         <v>30</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="56">
+      <c r="A33" s="55">
         <v>31</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J33" s="43"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="56">
+      <c r="A34" s="55">
         <v>32</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="56">
+      <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J35" s="43"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="56">
+      <c r="A36" s="55">
         <v>34</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="56">
+      <c r="A37" s="55">
         <v>35</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J37" s="43"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="56">
+      <c r="A38" s="55">
         <v>36</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A39" s="56">
+      <c r="A39" s="55">
         <v>37</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J39" s="43"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="56">
+      <c r="A40" s="55">
         <v>38</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J40" s="43"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="56">
+      <c r="A41" s="55">
         <v>39</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J41" s="43"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="56">
+      <c r="A42" s="55">
         <v>40</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="56">
+      <c r="A43" s="55">
         <v>41</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J43" s="43"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="56">
+      <c r="A44" s="55">
         <v>42</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J44" s="43"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="56">
+      <c r="A45" s="55">
         <v>43</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J45" s="43"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="56">
+      <c r="A46" s="55">
         <v>44</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J46" s="43"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="56">
+      <c r="A47" s="55">
         <v>45</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J47" s="43"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="56">
+      <c r="A48" s="55">
         <v>46</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J48" s="43"/>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A49" s="56">
+      <c r="A49" s="55">
         <v>47</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J49" s="43"/>
+      <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A50" s="56">
+      <c r="A50" s="55">
         <v>48</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="56">
+      <c r="A51" s="55">
         <v>49</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J51" s="43"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="56">
+      <c r="A52" s="55">
         <v>50</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J52" s="43"/>
+      <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="56">
+      <c r="A53" s="55">
         <v>51</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J53" s="43"/>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="56">
+      <c r="A54" s="55">
         <v>52</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J54" s="43"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="56">
+      <c r="A55" s="55">
         <v>53</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J55" s="43"/>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="56">
+      <c r="A56" s="55">
         <v>54</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J56" s="43"/>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="56">
+      <c r="A57" s="55">
         <v>55</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J57" s="43"/>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="56">
+      <c r="A58" s="55">
         <v>56</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J58" s="43"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="56">
+      <c r="A59" s="55">
         <v>57</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J59" s="43"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <v>58</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J60" s="43"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="56">
+      <c r="A61" s="55">
         <v>59</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J61" s="43"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="56">
+      <c r="A62" s="55">
         <v>60</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
       <c r="I62" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J62" s="43"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A63" s="56">
+      <c r="A63" s="55">
         <v>61</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J63" s="43"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="56">
+      <c r="A64" s="55">
         <v>62</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J64" s="43"/>
+      <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="56">
+      <c r="A65" s="55">
         <v>63</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J65" s="43"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="56">
+      <c r="A66" s="55">
         <v>64</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J66" s="43"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="56">
+      <c r="A67" s="55">
         <v>65</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J67" s="43"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" s="56">
+      <c r="A68" s="55">
         <v>66</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J68" s="43"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A69" s="56">
+      <c r="A69" s="55">
         <v>67</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
       <c r="I69" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J69" s="43"/>
+      <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A70" s="56">
+      <c r="A70" s="55">
         <v>68</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
       <c r="I70" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J70" s="43"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A71" s="56">
+      <c r="A71" s="55">
         <v>69</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J71" s="43"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A72" s="56">
+      <c r="A72" s="55">
         <v>70</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J72" s="43"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="56">
+      <c r="A73" s="55">
         <v>71</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J73" s="43"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A74" s="56">
+      <c r="A74" s="55">
         <v>72</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
       <c r="I74" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J74" s="43"/>
+      <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A75" s="56">
+      <c r="A75" s="55">
         <v>73</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J75" s="43"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A76" s="56">
+      <c r="A76" s="55">
         <v>74</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
       <c r="I76" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J76" s="43"/>
+      <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A77" s="56">
+      <c r="A77" s="55">
         <v>75</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
       <c r="I77" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J77" s="43"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A78" s="56">
+      <c r="A78" s="55">
         <v>76</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
       <c r="I78" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J78" s="43"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="56">
+      <c r="A79" s="55">
         <v>77</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
       <c r="I79" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J79" s="43"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A80" s="56">
+      <c r="A80" s="55">
         <v>78</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J80" s="43"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="56">
+      <c r="A81" s="55">
         <v>79</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
       <c r="I81" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J81" s="43"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="56">
+      <c r="A82" s="55">
         <v>80</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J82" s="43"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="56">
+      <c r="A83" s="55">
         <v>81</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
       <c r="I83" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J83" s="43"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A84" s="56">
+      <c r="A84" s="55">
         <v>82</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J84" s="43"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A85" s="56">
+      <c r="A85" s="55">
         <v>83</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J85" s="43"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A86" s="56">
+      <c r="A86" s="55">
         <v>84</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
       <c r="I86" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J86" s="43"/>
+      <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A87" s="56">
+      <c r="A87" s="55">
         <v>85</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
       <c r="I87" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J87" s="43"/>
+      <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" s="56">
+      <c r="A88" s="55">
         <v>86</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
       <c r="I88" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J88" s="43"/>
+      <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A89" s="56">
+      <c r="A89" s="55">
         <v>87</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J89" s="43"/>
+      <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="56">
+      <c r="A90" s="55">
         <v>88</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
       <c r="I90" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J90" s="43"/>
+      <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="56">
+      <c r="A91" s="55">
         <v>89</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
       <c r="I91" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J91" s="43"/>
+      <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="56">
+      <c r="A92" s="55">
         <v>90</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
       <c r="I92" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J92" s="43"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="56">
+      <c r="A93" s="55">
         <v>91</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
       <c r="I93" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J93" s="43"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="56">
+      <c r="A94" s="55">
         <v>92</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J94" s="43"/>
+      <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A95" s="56">
+      <c r="A95" s="55">
         <v>93</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J95" s="43"/>
+      <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="56">
+      <c r="A96" s="55">
         <v>94</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J96" s="43"/>
+      <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="56">
+      <c r="A97" s="55">
         <v>95</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="15" t="str">
         <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J97" s="43"/>
+      <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="58">
+      <c r="A98" s="57">
         <v>96</v>
       </c>
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="28" t="str">
-        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="23" t="str">
-        <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J98" s="43"/>
-    </row>
-    <row r="99" spans="1:10" s="20" customFormat="1">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19">
+      <c r="C98" s="30"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="27" t="str">
+        <f>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="22" t="str">
+        <f>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J98" s="42"/>
+    </row>
+    <row r="99" spans="1:10" s="19" customFormat="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18">
         <v>1</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <v>1</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19">
+      <c r="E99" s="18"/>
+      <c r="F99" s="18">
         <v>1</v>
       </c>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19">
+      <c r="G99" s="18"/>
+      <c r="H99" s="18">
         <v>1</v>
       </c>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1"/>
@@ -5858,19 +5871,19 @@
       <c r="J111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TvaDqgM7TDWYDZMwnBe72kflheVPLjcOONIsTJGs8pOwvWUinGPk86ms5EKWyxjg0yvwVNWyeIHGhT9ncr44kA==" saltValue="kp7cvhV9nFKwoFDoivgQ0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D98 F3:H98 J3:J98">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5927,21 +5940,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="E2" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5949,22 +5962,22 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>30</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5972,45 +5985,45 @@
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>10</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>50</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="E5" s="4"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="G6" s="35" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="G6" s="34" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6021,7 +6034,7 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6032,20 +6045,20 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6077,140 +6090,140 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="40.625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="20" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="48" customWidth="1"/>
-    <col min="4" max="13" width="16.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="40.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="47" customWidth="1"/>
+    <col min="4" max="13" width="16.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="48"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>232</v>
       </c>
     </row>
